--- a/Clustering/OutputFiles/Clusters.xlsx
+++ b/Clustering/OutputFiles/Clusters.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>6</v>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E90" t="n">
         <v>6</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
         <v>6</v>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
         <v>6</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
         <v>6</v>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E95" t="n">
         <v>6</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
         <v>6</v>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" t="n">
         <v>6</v>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>6</v>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
         <v>6</v>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
         <v>6</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
         <v>6</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>6</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
         <v>6</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
         <v>9</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>9</v>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
@@ -5424,7 +5424,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E169" t="n">
         <v>9</v>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E170" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E171" t="n">
         <v>9</v>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E173" t="n">
         <v>9</v>
@@ -5559,7 +5559,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>9</v>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>11</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>11</v>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193" t="n">
         <v>11</v>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E194" t="n">
         <v>11</v>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>11</v>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" t="n">
         <v>11</v>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>11</v>
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E198" t="n">
         <v>11</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
         <v>11</v>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E200" t="n">
         <v>11</v>
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E204" t="n">
         <v>12</v>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E205" t="n">
         <v>12</v>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E207" t="n">
         <v>12</v>
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E208" t="n">
         <v>12</v>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E210" t="n">
         <v>12</v>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E211" t="n">
         <v>12</v>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
         <v>12</v>
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E213" t="n">
         <v>12</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
         <v>12</v>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E215" t="n">
         <v>12</v>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216" t="n">
         <v>12</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
         <v>12</v>
@@ -6865,7 +6865,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>12</v>
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E220" t="n">
         <v>14</v>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E221" t="n">
         <v>14</v>
@@ -7009,7 +7009,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>14</v>
@@ -7041,7 +7041,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E224" t="n">
         <v>14</v>
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
         <v>14</v>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E226" t="n">
         <v>14</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E227" t="n">
         <v>14</v>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
         <v>14</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E230" t="n">
         <v>15</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
         <v>15</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E232" t="n">
         <v>15</v>
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E233" t="n">
         <v>15</v>
@@ -7340,7 +7340,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E234" t="n">
         <v>15</v>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E236" t="n">
         <v>15</v>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E237" t="n">
         <v>15</v>
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E238" t="n">
         <v>15</v>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E239" t="n">
         <v>15</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
         <v>15</v>
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E241" t="n">
         <v>15</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -7729,7 +7729,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -7785,7 +7785,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -7903,7 +7903,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -8150,7 +8150,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -8208,7 +8208,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E267" t="n">
         <v>16</v>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
         <v>17</v>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
         <v>17</v>
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E270" t="n">
         <v>17</v>
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E271" t="n">
         <v>18</v>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E272" t="n">
         <v>18</v>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E273" t="n">
         <v>19</v>
@@ -8481,7 +8481,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
         <v>19</v>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
         <v>19</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E277" t="n">
         <v>19</v>
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E279" t="n">
         <v>20</v>
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E280" t="n">
         <v>20</v>
@@ -8751,7 +8751,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E283" t="n">
         <v>20</v>
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E284" t="n">
         <v>20</v>
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E286" t="n">
         <v>20</v>
@@ -8863,7 +8863,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E287" t="n">
         <v>20</v>
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E288" t="n">
         <v>20</v>
@@ -8916,7 +8916,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E289" t="n">
         <v>21</v>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E290" t="n">
         <v>21</v>
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E291" t="n">
         <v>21</v>
@@ -9044,7 +9044,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E293" t="n">
         <v>21</v>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E295" t="n">
         <v>21</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E296" t="n">
         <v>21</v>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E297" t="n">
         <v>21</v>
@@ -9180,7 +9180,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E298" t="n">
         <v>21</v>
@@ -9243,7 +9243,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
         <v>21</v>
@@ -9273,7 +9273,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E301" t="n">
         <v>21</v>
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E303" t="n">
         <v>22</v>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E305" t="n">
         <v>22</v>
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E306" t="n">
         <v>22</v>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E307" t="n">
         <v>22</v>
@@ -9514,7 +9514,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E309" t="n">
         <v>22</v>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E310" t="n">
         <v>22</v>
@@ -9574,7 +9574,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
         <v>22</v>
@@ -9600,7 +9600,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E312" t="n">
         <v>22</v>
@@ -9626,7 +9626,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
         <v>22</v>
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E314" t="n">
         <v>22</v>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E315" t="n">
         <v>22</v>
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E316" t="n">
         <v>22</v>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E317" t="n">
         <v>22</v>
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E318" t="n">
         <v>22</v>
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E319" t="n">
         <v>22</v>
@@ -9823,7 +9823,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320" t="n">
         <v>22</v>
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
         <v>23</v>
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E322" t="n">
         <v>23</v>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E323" t="n">
         <v>23</v>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E326" t="n">
         <v>23</v>
@@ -10015,7 +10015,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E327" t="n">
         <v>23</v>
@@ -10044,7 +10044,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E328" t="n">
         <v>23</v>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E329" t="n">
         <v>23</v>
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E330" t="n">
         <v>23</v>
@@ -10177,7 +10177,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E332" t="n">
         <v>24</v>
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E333" t="n">
         <v>24</v>
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E334" t="n">
         <v>24</v>
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E335" t="n">
         <v>24</v>
@@ -10295,7 +10295,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E336" t="n">
         <v>25</v>
@@ -10328,7 +10328,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E337" t="n">
         <v>25</v>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E338" t="n">
         <v>25</v>
@@ -10384,7 +10384,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E339" t="n">
         <v>25</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E341" t="n">
         <v>25</v>
@@ -10483,7 +10483,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E342" t="n">
         <v>25</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E343" t="n">
         <v>25</v>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E345" t="n">
         <v>25</v>
@@ -10598,7 +10598,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E346" t="n">
         <v>25</v>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E347" t="n">
         <v>25</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E348" t="n">
         <v>25</v>
@@ -10723,7 +10723,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E349" t="n">
         <v>26</v>
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E351" t="n">
         <v>26</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E352" t="n">
         <v>26</v>
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E353" t="n">
         <v>26</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E354" t="n">
         <v>26</v>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E355" t="n">
         <v>26</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E356" t="n">
         <v>26</v>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E357" t="n">
         <v>26</v>
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E358" t="n">
         <v>26</v>
@@ -11010,7 +11010,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E359" t="n">
         <v>26</v>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>26</v>
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E362" t="n">
         <v>27</v>
@@ -11153,7 +11153,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E364" t="n">
         <v>27</v>
@@ -11180,7 +11180,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E365" t="n">
         <v>27</v>
@@ -11234,7 +11234,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E367" t="n">
         <v>27</v>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E368" t="n">
         <v>27</v>
@@ -11288,7 +11288,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E369" t="n">
         <v>27</v>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E370" t="n">
         <v>27</v>
@@ -11358,7 +11358,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E371" t="n">
         <v>28</v>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E373" t="n">
         <v>28</v>
@@ -11459,7 +11459,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E374" t="n">
         <v>28</v>
@@ -11489,7 +11489,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E375" t="n">
         <v>28</v>

--- a/Clustering/OutputFiles/Clusters.xlsx
+++ b/Clustering/OutputFiles/Clusters.xlsx
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
         <v>6</v>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
         <v>6</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
         <v>6</v>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
         <v>6</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
         <v>6</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
         <v>6</v>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>6</v>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
         <v>6</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
         <v>6</v>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
         <v>6</v>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
         <v>6</v>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>6</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
         <v>6</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
         <v>6</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
         <v>6</v>
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -3931,7 +3931,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -5103,7 +5103,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E166" t="n">
         <v>9</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E167" t="n">
         <v>9</v>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
@@ -5424,7 +5424,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E169" t="n">
         <v>9</v>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E170" t="n">
         <v>9</v>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>9</v>
@@ -5559,7 +5559,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E174" t="n">
         <v>9</v>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190" t="n">
         <v>11</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193" t="n">
         <v>11</v>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E194" t="n">
         <v>11</v>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E195" t="n">
         <v>11</v>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E196" t="n">
         <v>11</v>
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>11</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E199" t="n">
         <v>11</v>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E200" t="n">
         <v>11</v>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E201" t="n">
         <v>11</v>
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202" t="n">
         <v>11</v>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E203" t="n">
         <v>11</v>
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E204" t="n">
         <v>12</v>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E205" t="n">
         <v>12</v>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E206" t="n">
         <v>12</v>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E207" t="n">
         <v>12</v>
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E208" t="n">
         <v>12</v>
@@ -6611,7 +6611,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
         <v>12</v>
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E211" t="n">
         <v>12</v>
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E213" t="n">
         <v>12</v>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E215" t="n">
         <v>12</v>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E216" t="n">
         <v>12</v>
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
         <v>14</v>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E221" t="n">
         <v>14</v>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E222" t="n">
         <v>14</v>
@@ -7041,7 +7041,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>14</v>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E226" t="n">
         <v>14</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E227" t="n">
         <v>14</v>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E229" t="n">
         <v>14</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E230" t="n">
         <v>15</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E231" t="n">
         <v>15</v>
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E233" t="n">
         <v>15</v>
@@ -7340,7 +7340,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E234" t="n">
         <v>15</v>
@@ -7386,7 +7386,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E235" t="n">
         <v>15</v>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
         <v>15</v>
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E238" t="n">
         <v>15</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E240" t="n">
         <v>15</v>
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E241" t="n">
         <v>15</v>
@@ -7584,7 +7584,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -7903,7 +7903,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -8150,7 +8150,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -8180,7 +8180,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -8208,7 +8208,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E268" t="n">
         <v>17</v>
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E270" t="n">
         <v>17</v>
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E271" t="n">
         <v>18</v>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E272" t="n">
         <v>18</v>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E273" t="n">
         <v>19</v>
@@ -8481,7 +8481,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E274" t="n">
         <v>19</v>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E275" t="n">
         <v>19</v>
@@ -8537,7 +8537,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E276" t="n">
         <v>19</v>
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
         <v>19</v>
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E279" t="n">
         <v>20</v>
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280" t="n">
         <v>20</v>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E281" t="n">
         <v>20</v>
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E282" t="n">
         <v>20</v>
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E284" t="n">
         <v>20</v>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E285" t="n">
         <v>20</v>
@@ -8863,7 +8863,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E287" t="n">
         <v>20</v>
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E288" t="n">
         <v>20</v>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E290" t="n">
         <v>21</v>
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E291" t="n">
         <v>21</v>
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E292" t="n">
         <v>21</v>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E294" t="n">
         <v>21</v>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E295" t="n">
         <v>21</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E296" t="n">
         <v>21</v>
@@ -9180,7 +9180,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E298" t="n">
         <v>21</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
         <v>21</v>
@@ -9243,7 +9243,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E300" t="n">
         <v>21</v>
@@ -9273,7 +9273,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E301" t="n">
         <v>21</v>
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E303" t="n">
         <v>22</v>
@@ -9365,7 +9365,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E304" t="n">
         <v>22</v>
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E306" t="n">
         <v>22</v>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E307" t="n">
         <v>22</v>
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E308" t="n">
         <v>22</v>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E310" t="n">
         <v>22</v>
@@ -9600,7 +9600,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E312" t="n">
         <v>22</v>
@@ -9626,7 +9626,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E313" t="n">
         <v>22</v>
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E314" t="n">
         <v>22</v>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E315" t="n">
         <v>22</v>
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E316" t="n">
         <v>22</v>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E317" t="n">
         <v>22</v>
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E318" t="n">
         <v>22</v>
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E319" t="n">
         <v>22</v>
@@ -9823,7 +9823,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E320" t="n">
         <v>22</v>
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E321" t="n">
         <v>23</v>
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E322" t="n">
         <v>23</v>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E323" t="n">
         <v>23</v>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E324" t="n">
         <v>23</v>
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E325" t="n">
         <v>23</v>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E326" t="n">
         <v>23</v>
@@ -10015,7 +10015,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E327" t="n">
         <v>23</v>
@@ -10044,7 +10044,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E328" t="n">
         <v>23</v>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E329" t="n">
         <v>23</v>
@@ -10149,7 +10149,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E331" t="n">
         <v>24</v>
@@ -10177,7 +10177,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E332" t="n">
         <v>24</v>
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E333" t="n">
         <v>24</v>
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E334" t="n">
         <v>24</v>
@@ -10267,7 +10267,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E335" t="n">
         <v>24</v>
@@ -10328,7 +10328,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E337" t="n">
         <v>25</v>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E338" t="n">
         <v>25</v>
@@ -10384,7 +10384,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E339" t="n">
         <v>25</v>
@@ -10426,7 +10426,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E340" t="n">
         <v>25</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E341" t="n">
         <v>25</v>
@@ -10483,7 +10483,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E342" t="n">
         <v>25</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E343" t="n">
         <v>25</v>
@@ -10537,7 +10537,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E344" t="n">
         <v>25</v>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E345" t="n">
         <v>25</v>
@@ -10598,7 +10598,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E346" t="n">
         <v>25</v>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E347" t="n">
         <v>25</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E348" t="n">
         <v>25</v>
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
         <v>26</v>
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E351" t="n">
         <v>26</v>
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E353" t="n">
         <v>26</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E354" t="n">
         <v>26</v>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E355" t="n">
         <v>26</v>
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E358" t="n">
         <v>26</v>
@@ -11010,7 +11010,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E359" t="n">
         <v>26</v>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E360" t="n">
         <v>26</v>
@@ -11073,7 +11073,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E361" t="n">
         <v>26</v>
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E362" t="n">
         <v>27</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E363" t="n">
         <v>27</v>
@@ -11153,7 +11153,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E364" t="n">
         <v>27</v>
@@ -11180,7 +11180,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E365" t="n">
         <v>27</v>
@@ -11234,7 +11234,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E367" t="n">
         <v>27</v>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E368" t="n">
         <v>27</v>
@@ -11288,7 +11288,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E369" t="n">
         <v>27</v>
@@ -11358,7 +11358,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E371" t="n">
         <v>28</v>
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E372" t="n">
         <v>28</v>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E373" t="n">
         <v>28</v>
@@ -11459,7 +11459,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E374" t="n">
         <v>28</v>
